--- a/MAINIO.xlsx
+++ b/MAINIO.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Real-time\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>Yes</t>
   </si>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,7 +112,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvPr id="2" name="Oval 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -172,7 +178,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -232,7 +244,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Flowchart: Decision 3"/>
+        <xdr:cNvPr id="4" name="Flowchart: Decision 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -292,7 +310,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Flowchart: Decision 4"/>
+        <xdr:cNvPr id="5" name="Flowchart: Decision 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -352,7 +376,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Flowchart: Decision 5"/>
+        <xdr:cNvPr id="6" name="Flowchart: Decision 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -412,7 +442,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Flowchart: Decision 6"/>
+        <xdr:cNvPr id="7" name="Flowchart: Decision 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -472,7 +508,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Flowchart: Decision 7"/>
+        <xdr:cNvPr id="8" name="Flowchart: Decision 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -532,7 +574,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -670,7 +718,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Flowchart: Decision 9"/>
+        <xdr:cNvPr id="10" name="Flowchart: Decision 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -730,7 +784,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Flowchart: Decision 11"/>
+        <xdr:cNvPr id="12" name="Flowchart: Decision 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -790,7 +850,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 8"/>
+        <xdr:cNvPr id="14" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -928,7 +994,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 8"/>
+        <xdr:cNvPr id="15" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1066,7 +1138,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 8"/>
+        <xdr:cNvPr id="16" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1204,7 +1282,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Flowchart: Decision 18"/>
+        <xdr:cNvPr id="19" name="Flowchart: Decision 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1264,7 +1348,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1331,7 +1421,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Flowchart: Decision 20"/>
+        <xdr:cNvPr id="21" name="Flowchart: Decision 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1391,7 +1487,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Flowchart: Decision 21"/>
+        <xdr:cNvPr id="22" name="Flowchart: Decision 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1451,7 +1553,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1511,7 +1619,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle 23"/>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1571,7 +1685,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1631,7 +1751,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Flowchart: Decision 25"/>
+        <xdr:cNvPr id="26" name="Flowchart: Decision 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1691,7 +1817,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Flowchart: Decision 27"/>
+        <xdr:cNvPr id="28" name="Flowchart: Decision 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1751,7 +1883,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Rectangle 28"/>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1818,7 +1956,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Rectangle 29"/>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1878,7 +2022,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Rectangle 30"/>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1938,7 +2088,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Rectangle 31"/>
+        <xdr:cNvPr id="32" name="Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1998,7 +2154,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
           <a:endCxn id="4" idx="0"/>
@@ -2048,7 +2210,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="2"/>
           <a:endCxn id="5" idx="0"/>
@@ -2098,7 +2266,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="2"/>
           <a:endCxn id="6" idx="0"/>
@@ -2148,7 +2322,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Straight Arrow Connector 44"/>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="2"/>
           <a:endCxn id="7" idx="0"/>
@@ -2198,7 +2378,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Straight Arrow Connector 45"/>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="2"/>
           <a:endCxn id="8" idx="0"/>
@@ -2248,7 +2434,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Straight Arrow Connector 46"/>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2295,7 +2487,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Straight Arrow Connector 47"/>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -2344,7 +2542,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Straight Arrow Connector 64"/>
+        <xdr:cNvPr id="65" name="Straight Arrow Connector 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="26" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -2393,7 +2597,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="Straight Arrow Connector 66"/>
+        <xdr:cNvPr id="67" name="Straight Arrow Connector 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="28" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -2442,7 +2652,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="Straight Arrow Connector 68"/>
+        <xdr:cNvPr id="69" name="Straight Arrow Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="19" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -2491,7 +2707,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Straight Arrow Connector 73"/>
+        <xdr:cNvPr id="74" name="Straight Arrow Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -2540,7 +2762,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="Straight Arrow Connector 75"/>
+        <xdr:cNvPr id="76" name="Straight Arrow Connector 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -2589,7 +2817,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="Straight Arrow Connector 79"/>
+        <xdr:cNvPr id="80" name="Straight Arrow Connector 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="8" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -2638,7 +2872,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="Elbow Connector 82"/>
+        <xdr:cNvPr id="83" name="Elbow Connector 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="20" idx="1"/>
@@ -2688,7 +2928,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="Elbow Connector 84"/>
+        <xdr:cNvPr id="85" name="Elbow Connector 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="20" idx="3"/>
           <a:endCxn id="10" idx="1"/>
@@ -2738,7 +2984,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="Straight Arrow Connector 86"/>
+        <xdr:cNvPr id="87" name="Straight Arrow Connector 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="10" idx="2"/>
           <a:endCxn id="21" idx="0"/>
@@ -2788,7 +3040,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="Straight Arrow Connector 87"/>
+        <xdr:cNvPr id="88" name="Straight Arrow Connector 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="2"/>
           <a:endCxn id="22" idx="0"/>
@@ -2838,7 +3096,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="Straight Arrow Connector 90"/>
+        <xdr:cNvPr id="91" name="Straight Arrow Connector 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="22" idx="2"/>
           <a:endCxn id="208" idx="0"/>
@@ -2888,7 +3152,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="Straight Arrow Connector 94"/>
+        <xdr:cNvPr id="95" name="Straight Arrow Connector 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="10" idx="3"/>
           <a:endCxn id="23" idx="1"/>
@@ -2938,7 +3208,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="Straight Arrow Connector 95"/>
+        <xdr:cNvPr id="96" name="Straight Arrow Connector 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="3"/>
           <a:endCxn id="24" idx="1"/>
@@ -2988,7 +3264,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="99" name="Straight Arrow Connector 98"/>
+        <xdr:cNvPr id="99" name="Straight Arrow Connector 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="22" idx="3"/>
           <a:endCxn id="25" idx="1"/>
@@ -3038,7 +3320,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="Straight Arrow Connector 101"/>
+        <xdr:cNvPr id="102" name="Straight Arrow Connector 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="12" idx="3"/>
           <a:endCxn id="30" idx="1"/>
@@ -3088,7 +3376,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="Straight Arrow Connector 104"/>
+        <xdr:cNvPr id="105" name="Straight Arrow Connector 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="26" idx="3"/>
           <a:endCxn id="31" idx="1"/>
@@ -3138,7 +3432,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="108" name="Straight Arrow Connector 107"/>
+        <xdr:cNvPr id="108" name="Straight Arrow Connector 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="28" idx="3"/>
           <a:endCxn id="29" idx="1"/>
@@ -3188,7 +3488,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="111" name="Straight Arrow Connector 110"/>
+        <xdr:cNvPr id="111" name="Straight Arrow Connector 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="3"/>
           <a:endCxn id="32" idx="1"/>
@@ -3238,7 +3544,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="Rectangle 142"/>
+        <xdr:cNvPr id="143" name="Rectangle 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3320,7 +3632,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="Flowchart: Decision 143"/>
+        <xdr:cNvPr id="144" name="Flowchart: Decision 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3380,7 +3698,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="161" name="Straight Connector 160"/>
+        <xdr:cNvPr id="161" name="Straight Connector 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="23" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -3426,7 +3750,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="164" name="Straight Connector 163"/>
+        <xdr:cNvPr id="164" name="Straight Connector 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3470,7 +3800,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="168" name="Straight Arrow Connector 167"/>
+        <xdr:cNvPr id="168" name="Straight Arrow Connector 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="143" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -3519,7 +3855,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="171" name="Elbow Connector 170"/>
+        <xdr:cNvPr id="171" name="Elbow Connector 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="143" idx="1"/>
           <a:endCxn id="144" idx="3"/>
@@ -3571,7 +3913,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="192" name="Straight Connector 191"/>
+        <xdr:cNvPr id="192" name="Straight Connector 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="144" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -3617,7 +3965,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="196" name="Straight Connector 195"/>
+        <xdr:cNvPr id="196" name="Straight Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3661,7 +4015,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="200" name="Straight Arrow Connector 199"/>
+        <xdr:cNvPr id="200" name="Straight Arrow Connector 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3708,7 +4068,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="206" name="Straight Arrow Connector 205"/>
+        <xdr:cNvPr id="206" name="Straight Arrow Connector 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="144" idx="2"/>
           <a:endCxn id="207" idx="0"/>
@@ -3758,7 +4124,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="207" name="Rectangle 206"/>
+        <xdr:cNvPr id="207" name="Rectangle 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3818,7 +4190,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="208" name="Rectangle 207"/>
+        <xdr:cNvPr id="208" name="Rectangle 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3878,7 +4256,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="210" name="Straight Connector 209"/>
+        <xdr:cNvPr id="210" name="Straight Connector 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="208" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -3924,7 +4308,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="212" name="Straight Connector 211"/>
+        <xdr:cNvPr id="212" name="Straight Connector 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="24" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -3970,7 +4360,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="213" name="Straight Connector 212"/>
+        <xdr:cNvPr id="213" name="Straight Connector 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="25" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -4016,7 +4412,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="215" name="Straight Connector 214"/>
+        <xdr:cNvPr id="215" name="Straight Connector 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="30" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -4062,7 +4464,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="220" name="Straight Connector 219"/>
+        <xdr:cNvPr id="220" name="Straight Connector 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4106,7 +4514,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="223" name="Straight Connector 222"/>
+        <xdr:cNvPr id="223" name="Straight Connector 222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="29" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -4152,7 +4566,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="227" name="Straight Connector 226"/>
+        <xdr:cNvPr id="227" name="Straight Connector 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="32" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -4198,7 +4618,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="230" name="Elbow Connector 229"/>
+        <xdr:cNvPr id="230" name="Elbow Connector 229">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="12" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -4244,7 +4670,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="231" name="Elbow Connector 230"/>
+        <xdr:cNvPr id="231" name="Elbow Connector 230">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="26" idx="2"/>
           <a:endCxn id="175" idx="1"/>
@@ -4291,7 +4723,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="233" name="Elbow Connector 232"/>
+        <xdr:cNvPr id="233" name="Elbow Connector 232">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="28" idx="2"/>
           <a:endCxn id="176" idx="1"/>
@@ -4338,7 +4776,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="239" name="Elbow Connector 238"/>
+        <xdr:cNvPr id="239" name="Elbow Connector 238">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -4384,7 +4828,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="255" name="Oval 254"/>
+        <xdr:cNvPr id="255" name="Oval 254">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4449,7 +4899,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Rectangle 32"/>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4514,7 +4970,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Flowchart: Decision 37"/>
+        <xdr:cNvPr id="38" name="Flowchart: Decision 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4574,7 +5036,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="Rectangle 111"/>
+        <xdr:cNvPr id="112" name="Rectangle 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4634,7 +5102,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="Flowchart: Decision 112"/>
+        <xdr:cNvPr id="113" name="Flowchart: Decision 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4694,7 +5168,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="Rectangle 113"/>
+        <xdr:cNvPr id="114" name="Rectangle 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4754,7 +5234,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="255" idx="4"/>
           <a:endCxn id="33" idx="0"/>
@@ -4804,7 +5290,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="33" idx="2"/>
           <a:endCxn id="38" idx="0"/>
@@ -4854,7 +5346,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Straight Arrow Connector 48"/>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="38" idx="2"/>
           <a:endCxn id="112" idx="0"/>
@@ -4904,7 +5402,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="Straight Arrow Connector 122"/>
+        <xdr:cNvPr id="123" name="Straight Arrow Connector 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="112" idx="2"/>
           <a:endCxn id="113" idx="0"/>
@@ -4954,7 +5458,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="Straight Arrow Connector 123"/>
+        <xdr:cNvPr id="124" name="Straight Arrow Connector 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="113" idx="2"/>
           <a:endCxn id="114" idx="0"/>
@@ -5004,7 +5514,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Oval 62"/>
+        <xdr:cNvPr id="63" name="Oval 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5064,7 +5580,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="Elbow Connector 69"/>
+        <xdr:cNvPr id="70" name="Elbow Connector 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="114" idx="3"/>
           <a:endCxn id="33" idx="3"/>
@@ -5116,7 +5638,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="Elbow Connector 72"/>
+        <xdr:cNvPr id="73" name="Elbow Connector 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="38" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -5168,7 +5696,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="237" name="Straight Arrow Connector 236"/>
+        <xdr:cNvPr id="237" name="Straight Arrow Connector 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000ED000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="8" idx="2"/>
           <a:endCxn id="253" idx="0"/>
@@ -5218,7 +5752,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="253" name="Flowchart: Decision 252"/>
+        <xdr:cNvPr id="253" name="Flowchart: Decision 252">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5278,7 +5818,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Straight Arrow Connector 40"/>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="253" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -5327,7 +5873,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Rectangle 43"/>
+        <xdr:cNvPr id="44" name="Rectangle 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5392,7 +5944,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Straight Connector 50"/>
+        <xdr:cNvPr id="51" name="Straight Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="44" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -5438,7 +5996,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="Rectangle 83"/>
+        <xdr:cNvPr id="84" name="Rectangle 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5498,7 +6062,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="109" name="Straight Arrow Connector 108"/>
+        <xdr:cNvPr id="109" name="Straight Arrow Connector 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="4"/>
           <a:endCxn id="84" idx="0"/>
@@ -5548,7 +6118,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="Straight Arrow Connector 116"/>
+        <xdr:cNvPr id="117" name="Straight Arrow Connector 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="84" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -5598,7 +6174,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="Rectangle 120"/>
+        <xdr:cNvPr id="121" name="Rectangle 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5658,7 +6240,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="175" name="Rectangle 174"/>
+        <xdr:cNvPr id="175" name="Rectangle 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5718,7 +6306,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="176" name="Rectangle 175"/>
+        <xdr:cNvPr id="176" name="Rectangle 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5778,7 +6372,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="Rectangle 181"/>
+        <xdr:cNvPr id="182" name="Rectangle 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5838,7 +6438,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="130" name="Straight Connector 129"/>
+        <xdr:cNvPr id="130" name="Straight Connector 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="121" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -5884,7 +6490,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="132" name="Straight Connector 131"/>
+        <xdr:cNvPr id="132" name="Straight Connector 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="175" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -5930,7 +6542,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="135" name="Straight Connector 134"/>
+        <xdr:cNvPr id="135" name="Straight Connector 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="176" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -5976,7 +6594,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="138" name="Straight Connector 137"/>
+        <xdr:cNvPr id="138" name="Straight Connector 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6020,7 +6644,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="146" name="Straight Connector 145"/>
+        <xdr:cNvPr id="146" name="Straight Connector 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6064,7 +6694,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="149" name="Straight Connector 148"/>
+        <xdr:cNvPr id="149" name="Straight Connector 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6108,7 +6744,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="151" name="Straight Arrow Connector 150"/>
+        <xdr:cNvPr id="151" name="Straight Arrow Connector 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6405,11 +7047,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="K1:CI33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="K1:CI37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ16" workbookViewId="0">
-      <selection activeCell="BW37" sqref="BW37"/>
+    <sheetView tabSelected="1" topLeftCell="AJ22" workbookViewId="0">
+      <selection activeCell="AS36" sqref="AS36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7636,6 +8278,16 @@
       <c r="CH33" s="1"/>
       <c r="CI33" s="1"/>
     </row>
+    <row r="35" spans="50:87" x14ac:dyDescent="0.25">
+      <c r="AY35" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="50:87" x14ac:dyDescent="0.25">
+      <c r="BF37" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
